--- a/BMSHPMS/wwwroot/ExcelTemplate/DSReport.xlsx
+++ b/BMSHPMS/wwwroot/ExcelTemplate/DSReport.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fei\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CodeProject\GitHub\BMSHPMS\BMSHPMS\wwwroot\ExcelTemplate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0579C660-EA67-466C-8F8F-A1CE280D3201}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF2BEEA1-EEE4-4FA3-93AF-8E3829A62E59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5430" yWindow="1470" windowWidth="16560" windowHeight="13410" xr2:uid="{F7FE0664-ADBB-474F-A8B8-CBDFF7BD99EB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{F7FE0664-ADBB-474F-A8B8-CBDFF7BD99EB}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>{{ServiceName}}</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -64,15 +64,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{{ProjectTotalSum}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{{AllTotalSum}}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>金額總計</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{ProjectTotalSum|&gt;&gt;Table}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{Date}}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -126,17 +130,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -453,37 +451,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74EEC512-5F3D-42DC-85DB-00716F4C719A}">
-  <dimension ref="A2:D5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="1" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -497,7 +499,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -508,7 +510,7 @@
         <v>7</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
